--- a/example/adducts.xlsx
+++ b/example/adducts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Adduct</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>Lithium</t>
-  </si>
-  <si>
-    <t>Li</t>
   </si>
   <si>
     <t>Sodium</t>
@@ -643,7 +637,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -656,7 +650,7 @@
     <col min="5" max="5" style="21" width="6.576428571428571" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,62 +678,52 @@
         <v>0</v>
       </c>
       <c r="D2" s="8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E2" s="9">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
-      <c r="A3" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="12">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-    </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6"/>
@@ -832,19 +816,12 @@
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
